--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshihiko Miyaichi\Documents\UiPath\ReFramework-Template-Mail-Transaction\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E2C385-E0B8-452E-9A63-7199A8A98933}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499F471B-9001-460A-8833-CB40C8DBF756}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="7553" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -199,6 +199,14 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>.\Data\ReamdMailTemplate.txt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mail_Remand_Mail_Template</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -582,7 +590,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -690,7 +698,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -225,10 +225,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Login credential name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Subject filter pattern (Regular expression)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -238,6 +234,34 @@
   </si>
   <si>
     <t>Remand mail template file name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SMTP_Server</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SMTP_Port</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SMTP_Credential</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The email server host that is to be used</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The port that the email message is to be sent through</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IMAP server loogin credential name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SMTP server loogin credential name</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -618,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -703,7 +727,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -719,51 +743,75 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>54</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>65</v>
+      <c r="C15" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1745,6 +1793,9 @@
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -155,9 +155,6 @@
     <t>logF_BusinessProcessName</t>
   </si>
   <si>
-    <t>Framework</t>
-  </si>
-  <si>
     <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
   </si>
   <si>
@@ -262,6 +259,10 @@
   </si>
   <si>
     <t>SMTP server loogin credential name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Framework Mail Template</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -644,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -696,120 +697,120 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5">
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -645,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1808,7 +1808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1858,7 +1860,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
